--- a/published-data/fonds-solidarite/fds-2022-06-15/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-15/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -23503,13 +23503,13 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>9593</v>
+        <v>9594</v>
       </c>
       <c r="D453" t="n">
         <v>2240</v>
       </c>
       <c r="E453" t="n">
-        <v>31146325</v>
+        <v>31346325</v>
       </c>
       <c r="F453" t="inlineStr">
         <is>
@@ -35947,13 +35947,13 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>6008</v>
+        <v>6011</v>
       </c>
       <c r="D697" t="n">
         <v>1238</v>
       </c>
       <c r="E697" t="n">
-        <v>12069571</v>
+        <v>12081251</v>
       </c>
       <c r="F697" t="inlineStr">
         <is>
@@ -36253,13 +36253,13 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>19720</v>
+        <v>19724</v>
       </c>
       <c r="D703" t="n">
         <v>2228</v>
       </c>
       <c r="E703" t="n">
-        <v>56570783</v>
+        <v>56614531</v>
       </c>
       <c r="F703" t="inlineStr">
         <is>
@@ -36661,13 +36661,13 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>4601</v>
+        <v>4603</v>
       </c>
       <c r="D711" t="n">
         <v>509</v>
       </c>
       <c r="E711" t="n">
-        <v>13148080</v>
+        <v>13149372</v>
       </c>
       <c r="F711" t="inlineStr">
         <is>
@@ -37018,13 +37018,13 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>6666</v>
+        <v>6668</v>
       </c>
       <c r="D718" t="n">
         <v>1005</v>
       </c>
       <c r="E718" t="n">
-        <v>13471261</v>
+        <v>13493261</v>
       </c>
       <c r="F718" t="inlineStr">
         <is>
@@ -37120,13 +37120,13 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>5680</v>
+        <v>5681</v>
       </c>
       <c r="D720" t="n">
         <v>599</v>
       </c>
       <c r="E720" t="n">
-        <v>17175156</v>
+        <v>17175396</v>
       </c>
       <c r="F720" t="inlineStr">
         <is>
@@ -38803,13 +38803,13 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>58628</v>
+        <v>58629</v>
       </c>
       <c r="D753" t="n">
         <v>6091</v>
       </c>
       <c r="E753" t="n">
-        <v>334499353</v>
+        <v>334541166</v>
       </c>
       <c r="F753" t="inlineStr">
         <is>
@@ -43087,13 +43087,13 @@
         </is>
       </c>
       <c r="C837" t="n">
-        <v>40353</v>
+        <v>40354</v>
       </c>
       <c r="D837" t="n">
         <v>4219</v>
       </c>
       <c r="E837" t="n">
-        <v>286753006</v>
+        <v>286800589</v>
       </c>
       <c r="F837" t="inlineStr">
         <is>
@@ -43291,13 +43291,13 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>50260</v>
+        <v>50263</v>
       </c>
       <c r="D841" t="n">
         <v>9606</v>
       </c>
       <c r="E841" t="n">
-        <v>156899427</v>
+        <v>157197816</v>
       </c>
       <c r="F841" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108643</v>
+        <v>108649</v>
       </c>
       <c r="D852" t="n">
         <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>561712750</v>
+        <v>562108854</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43903,13 +43903,13 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>90266</v>
+        <v>90271</v>
       </c>
       <c r="D853" t="n">
         <v>10475</v>
       </c>
       <c r="E853" t="n">
-        <v>232793379</v>
+        <v>232811583</v>
       </c>
       <c r="F853" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182279</v>
+        <v>182281</v>
       </c>
       <c r="D854" t="n">
         <v>17497</v>
       </c>
       <c r="E854" t="n">
-        <v>1648989497</v>
+        <v>1649009497</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60071</v>
+        <v>60077</v>
       </c>
       <c r="D855" t="n">
         <v>9814</v>
       </c>
       <c r="E855" t="n">
-        <v>288936478</v>
+        <v>289393711</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44056,13 +44056,13 @@
         </is>
       </c>
       <c r="C856" t="n">
-        <v>8666</v>
+        <v>8668</v>
       </c>
       <c r="D856" t="n">
         <v>1645</v>
       </c>
       <c r="E856" t="n">
-        <v>44393536</v>
+        <v>44409899</v>
       </c>
       <c r="F856" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183931</v>
+        <v>183936</v>
       </c>
       <c r="D858" t="n">
         <v>35383</v>
       </c>
       <c r="E858" t="n">
-        <v>554077963</v>
+        <v>554299364</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51329</v>
+        <v>51330</v>
       </c>
       <c r="D859" t="n">
         <v>6433</v>
       </c>
       <c r="E859" t="n">
-        <v>424361620</v>
+        <v>424373738</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48559</v>
+        <v>48561</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>133149644</v>
+        <v>133169644</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45586,13 +45586,13 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>40892</v>
+        <v>40896</v>
       </c>
       <c r="D886" t="n">
         <v>8380</v>
       </c>
       <c r="E886" t="n">
-        <v>165866580</v>
+        <v>165950562</v>
       </c>
       <c r="F886" t="inlineStr">
         <is>
@@ -45637,13 +45637,13 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>127502</v>
+        <v>127508</v>
       </c>
       <c r="D887" t="n">
         <v>13775</v>
       </c>
       <c r="E887" t="n">
-        <v>277446622</v>
+        <v>277464187</v>
       </c>
       <c r="F887" t="inlineStr">
         <is>
@@ -45892,13 +45892,13 @@
         </is>
       </c>
       <c r="C892" t="n">
-        <v>25955</v>
+        <v>25956</v>
       </c>
       <c r="D892" t="n">
         <v>5119</v>
       </c>
       <c r="E892" t="n">
-        <v>67470862</v>
+        <v>67472362</v>
       </c>
       <c r="F892" t="inlineStr">
         <is>
@@ -46045,13 +46045,13 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>5244</v>
+        <v>5247</v>
       </c>
       <c r="D895" t="n">
         <v>1985</v>
       </c>
       <c r="E895" t="n">
-        <v>7390071</v>
+        <v>7420071</v>
       </c>
       <c r="F895" t="inlineStr">
         <is>
@@ -46096,13 +46096,13 @@
         </is>
       </c>
       <c r="C896" t="n">
-        <v>23635</v>
+        <v>23636</v>
       </c>
       <c r="D896" t="n">
         <v>3068</v>
       </c>
       <c r="E896" t="n">
-        <v>70455999</v>
+        <v>70458315</v>
       </c>
       <c r="F896" t="inlineStr">
         <is>
@@ -48748,13 +48748,13 @@
         </is>
       </c>
       <c r="C948" t="n">
-        <v>13454</v>
+        <v>13455</v>
       </c>
       <c r="D948" t="n">
         <v>3032</v>
       </c>
       <c r="E948" t="n">
-        <v>30358761</v>
+        <v>30359266</v>
       </c>
       <c r="F948" t="inlineStr">
         <is>
@@ -60478,13 +60478,13 @@
         </is>
       </c>
       <c r="C1178" t="n">
-        <v>18375</v>
+        <v>18376</v>
       </c>
       <c r="D1178" t="n">
         <v>3644</v>
       </c>
       <c r="E1178" t="n">
-        <v>100372206</v>
+        <v>100403285</v>
       </c>
       <c r="F1178" t="inlineStr">
         <is>
@@ -60835,13 +60835,13 @@
         </is>
       </c>
       <c r="C1185" t="n">
-        <v>45568</v>
+        <v>45569</v>
       </c>
       <c r="D1185" t="n">
         <v>5058</v>
       </c>
       <c r="E1185" t="n">
-        <v>292322800</v>
+        <v>292323895</v>
       </c>
       <c r="F1185" t="inlineStr">
         <is>
@@ -71953,13 +71953,13 @@
         </is>
       </c>
       <c r="C1403" t="n">
-        <v>21041</v>
+        <v>21044</v>
       </c>
       <c r="D1403" t="n">
         <v>6659</v>
       </c>
       <c r="E1403" t="n">
-        <v>33463185</v>
+        <v>33468657</v>
       </c>
       <c r="F1403" t="inlineStr">
         <is>
@@ -79654,13 +79654,13 @@
         </is>
       </c>
       <c r="C1554" t="n">
-        <v>11711</v>
+        <v>11712</v>
       </c>
       <c r="D1554" t="n">
         <v>1237</v>
       </c>
       <c r="E1554" t="n">
-        <v>68394115</v>
+        <v>68401098</v>
       </c>
       <c r="F1554" t="inlineStr">
         <is>
@@ -79858,13 +79858,13 @@
         </is>
       </c>
       <c r="C1558" t="n">
-        <v>4030</v>
+        <v>4031</v>
       </c>
       <c r="D1558" t="n">
         <v>843</v>
       </c>
       <c r="E1558" t="n">
-        <v>12423033</v>
+        <v>12432554</v>
       </c>
       <c r="F1558" t="inlineStr">
         <is>
@@ -82969,13 +82969,13 @@
         </is>
       </c>
       <c r="C1619" t="n">
-        <v>65677</v>
+        <v>65678</v>
       </c>
       <c r="D1619" t="n">
         <v>13319</v>
       </c>
       <c r="E1619" t="n">
-        <v>202666886</v>
+        <v>202672564</v>
       </c>
       <c r="F1619" t="inlineStr">
         <is>
